--- a/SE/se-space-check/results/results.xlsx
+++ b/SE/se-space-check/results/results.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="135">
   <si>
     <t>arc.univ.kiev.ua</t>
   </si>
@@ -443,6 +443,30 @@
   </si>
   <si>
     <t>not an issue, 2 pools, consistent data with Gstat</t>
+  </si>
+  <si>
+    <t>duplicate entity fixed</t>
+  </si>
+  <si>
+    <t>lcg-infosites se</t>
+  </si>
+  <si>
+    <t>on hold, upgrading  SE from dCache 1.9.5 to 1.9.12</t>
+  </si>
+  <si>
+    <t>2 pools, prob. normal</t>
+  </si>
+  <si>
+    <t>Inconsistent with Gstat</t>
+  </si>
+  <si>
+    <t>reported twice with space, once with se</t>
+  </si>
+  <si>
+    <t>fixed, old disk pool defined in the SE with non filesystems attached</t>
+  </si>
+  <si>
+    <t>Inconsistent with Gstat. Issue in Storm info provider. On hold</t>
   </si>
   <si>
     <r>
@@ -453,7 +477,6 @@
         <b/>
         <i/>
         <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -464,7 +487,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -473,35 +495,17 @@
     </r>
   </si>
   <si>
-    <t>duplicate entity fixed</t>
-  </si>
-  <si>
-    <t>lcg-infosites se</t>
-  </si>
-  <si>
-    <t>on hold, upgrading  SE from dCache 1.9.5 to 1.9.12</t>
-  </si>
-  <si>
-    <t>1 r/o pool reported with 09 capacity</t>
-  </si>
-  <si>
-    <t>2 pools, prob. normal</t>
-  </si>
-  <si>
-    <t>Inconsistent with Gstat</t>
-  </si>
-  <si>
-    <t>reported twice with space, once with se</t>
-  </si>
-  <si>
-    <t>fixed, old disk pool defined in the SE with non filesystems attached</t>
+    <t>1 r/o pool reported with 0 capacity. Fixed.</t>
+  </si>
+  <si>
+    <t>Fixed. "dpm-rmpool --poolname pool1"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,10 +528,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -723,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,15 +848,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -847,6 +856,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,6 +889,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -870,18 +912,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,24 +1246,24 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -6782,7 +6812,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6804,24 +6834,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="D1" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="43" t="s">
+      <c r="D1" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
@@ -7049,7 +7079,7 @@
         <v>75956</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>14</v>
@@ -7146,8 +7176,8 @@
       <c r="A9" s="30">
         <v>75957</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>132</v>
+      <c r="B9" s="55" t="s">
+        <v>130</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>16</v>
@@ -7176,7 +7206,7 @@
     </row>
     <row r="10" spans="1:15" s="35" customFormat="1">
       <c r="A10" s="33"/>
-      <c r="B10" s="48"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="34" t="s">
         <v>16</v>
       </c>
@@ -7225,7 +7255,7 @@
       <c r="A11" s="30">
         <v>75959</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="55" t="s">
         <v>123</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -7274,7 +7304,7 @@
     </row>
     <row r="12" spans="1:15" s="35" customFormat="1">
       <c r="A12" s="33"/>
-      <c r="B12" s="48"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="34" t="s">
         <v>38</v>
       </c>
@@ -7323,8 +7353,8 @@
       <c r="A13" s="9">
         <v>75960</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>127</v>
+      <c r="B13" s="57" t="s">
+        <v>126</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>41</v>
@@ -7353,7 +7383,7 @@
     </row>
     <row r="14" spans="1:15" s="16" customFormat="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="15" t="s">
         <v>41</v>
       </c>
@@ -7475,82 +7505,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="12" customFormat="1">
-      <c r="A17" s="9">
+    <row r="17" spans="1:15" s="32" customFormat="1">
+      <c r="A17" s="30">
         <v>75962</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
         <v>864</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="32">
         <v>171</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="32">
         <v>1036</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="32">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="16" customFormat="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15" t="s">
+    <row r="18" spans="1:15" s="35" customFormat="1">
+      <c r="A18" s="33"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="35">
         <v>864</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="35">
         <v>171</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="35">
         <v>1036</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="35">
         <v>16</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="35">
         <v>864</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="35">
         <v>171</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="35">
         <v>1036</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="35">
         <v>16</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="35">
         <f t="shared" ref="L18:O18" si="5">D18-H18</f>
         <v>0</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -7560,7 +7592,7 @@
         <v>75963</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>64</v>
@@ -7653,84 +7685,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="12" customFormat="1">
-      <c r="A21" s="9">
+    <row r="21" spans="1:15" s="32" customFormat="1">
+      <c r="A21" s="30">
         <v>75964</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="16" customFormat="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="15" t="s">
+      <c r="F21" s="32">
+        <v>0</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0</v>
+      </c>
+      <c r="H21" s="32">
+        <v>0</v>
+      </c>
+      <c r="I21" s="32">
+        <v>0</v>
+      </c>
+      <c r="J21" s="32">
+        <v>0</v>
+      </c>
+      <c r="K21" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="35" customFormat="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="35">
         <v>500</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="35">
         <v>5350</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="35">
         <v>5851</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="35">
         <v>91</v>
       </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
-        <v>0</v>
-      </c>
-      <c r="L22" s="16">
+      <c r="H22" s="35">
+        <v>0</v>
+      </c>
+      <c r="I22" s="35">
+        <v>0</v>
+      </c>
+      <c r="J22" s="35">
+        <v>0</v>
+      </c>
+      <c r="K22" s="35">
+        <v>0</v>
+      </c>
+      <c r="L22" s="35">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="35">
         <f t="shared" si="4"/>
         <v>5350</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="35">
         <f t="shared" si="4"/>
         <v>5851</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="35">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
@@ -7836,7 +7868,7 @@
         <v>75965</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>87</v>
@@ -7934,7 +7966,7 @@
         <v>75966</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>88</v>
@@ -8027,38 +8059,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="22" customFormat="1">
-      <c r="A29" s="19">
+    <row r="29" spans="1:15" s="46" customFormat="1" ht="30">
+      <c r="A29" s="43">
         <v>75970</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="46">
         <v>4304</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="22">
-        <v>0</v>
-      </c>
-      <c r="G29" s="22">
-        <v>0</v>
-      </c>
-      <c r="H29" s="22">
+      <c r="F29" s="46">
+        <v>0</v>
+      </c>
+      <c r="G29" s="46">
+        <v>0</v>
+      </c>
+      <c r="H29" s="46">
         <v>4304</v>
       </c>
-      <c r="I29" s="22">
-        <v>0</v>
-      </c>
-      <c r="J29" s="22">
+      <c r="I29" s="46">
+        <v>0</v>
+      </c>
+      <c r="J29" s="46">
         <v>4304</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="46">
         <v>0</v>
       </c>
     </row>
@@ -8066,8 +8098,8 @@
       <c r="A30" s="30">
         <v>75967</v>
       </c>
-      <c r="B30" s="39" t="s">
-        <v>125</v>
+      <c r="B30" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>96</v>
@@ -8115,7 +8147,7 @@
     </row>
     <row r="31" spans="1:15" s="24" customFormat="1">
       <c r="A31" s="33"/>
-      <c r="B31" s="40"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="34" t="s">
         <v>96</v>
       </c>
@@ -8233,53 +8265,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="38" customFormat="1" ht="30">
-      <c r="A34" s="36">
+    <row r="34" spans="1:15" s="42" customFormat="1" ht="30">
+      <c r="A34" s="40">
         <v>75974</v>
       </c>
-      <c r="B34" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="42">
         <v>188894</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="42">
         <v>61</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="42">
         <v>188956</v>
       </c>
-      <c r="G34" s="38">
-        <v>0</v>
-      </c>
-      <c r="H34" s="38">
+      <c r="G34" s="42">
+        <v>0</v>
+      </c>
+      <c r="H34" s="42">
         <v>188894</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="42">
         <v>61</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="42">
         <v>488956</v>
       </c>
-      <c r="K34" s="38">
-        <v>0</v>
-      </c>
-      <c r="L34" s="38">
+      <c r="K34" s="42">
+        <v>0</v>
+      </c>
+      <c r="L34" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M34" s="38">
+      <c r="M34" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N34" s="38">
+      <c r="N34" s="42">
         <f t="shared" si="4"/>
         <v>-300000</v>
       </c>
-      <c r="O34" s="38">
+      <c r="O34" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8289,9 +8321,9 @@
         <v>76373</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="23">
@@ -8307,7 +8339,7 @@
     <row r="36" spans="1:15" s="24" customFormat="1">
       <c r="A36" s="54"/>
       <c r="B36" s="52"/>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="39" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="24">
@@ -8333,7 +8365,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="D1:G1"/>
@@ -8343,6 +8375,7 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="259" orientation="portrait" r:id="rId1"/>
